--- a/Plan/Table/Live_Data/04.Trait_Table.xlsx
+++ b/Plan/Table/Live_Data/04.Trait_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4131C021-F7C8-4477-871C-EB03CEBE61F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65878F7B-C374-4D65-8AF5-9FECB5AD1757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{45D9D17D-8241-433E-9CEC-5D5DB5E76C3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34A237C4-CA13-4A7A-B842-1628815DEC65}"/>
   </bookViews>
   <sheets>
     <sheet name="04.Trait_Table" sheetId="1" r:id="rId1"/>
@@ -484,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BF09C9-3098-48A4-A523-E869DB125FFF}">
-  <dimension ref="A1:V63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E142D6F-247B-4294-98EA-23D4A76BB07D}">
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+      <selection sqref="A1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,25 +563,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -626,30 +626,30 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -694,30 +694,30 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -762,15 +762,15 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -830,15 +830,15 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -898,30 +898,30 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -966,30 +966,30 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1034,30 +1034,30 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1102,30 +1102,30 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1170,15 +1170,15 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1238,33 +1238,33 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1306,30 +1306,30 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1374,30 +1374,30 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G14">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1442,30 +1442,30 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G15">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1510,30 +1510,30 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1578,30 +1578,30 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1646,15 +1646,15 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1714,15 +1714,15 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1782,33 +1782,33 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G20">
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1850,30 +1850,30 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G21">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1918,33 +1918,33 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1986,12 +1986,12 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2000,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2054,12 +2054,12 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2122,12 +2122,12 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -2136,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2190,12 +2190,12 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2204,28 +2204,28 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2258,12 +2258,12 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2272,28 +2272,28 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>101</v>
+      </c>
+      <c r="G27">
         <v>3</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>116</v>
-      </c>
-      <c r="G27">
-        <v>-50</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2326,12 +2326,12 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2340,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G28">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2394,12 +2394,12 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2414,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G29">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2462,12 +2462,12 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2482,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2530,12 +2530,12 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2544,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2598,12 +2598,12 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2618,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2666,15 +2666,15 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -2734,12 +2734,12 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2748,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2802,12 +2802,12 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2822,13 +2822,13 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H35">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2870,12 +2870,12 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2890,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H36">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2938,12 +2938,12 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3006,12 +3006,12 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3026,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3074,12 +3074,12 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3094,13 +3094,13 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3142,12 +3142,12 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3210,12 +3210,12 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -3230,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="H41">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3278,12 +3278,12 @@
         <v>0</v>
       </c>
       <c r="V41">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3298,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3346,12 +3346,12 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3360,19 +3360,19 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3414,12 +3414,12 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3434,13 +3434,13 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3482,12 +3482,12 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3502,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3550,12 +3550,12 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3564,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G46">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3618,18 +3618,18 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3638,10 +3638,10 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G47">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3686,57 +3686,57 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G48">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3754,12 +3754,12 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3768,28 +3768,28 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3822,12 +3822,12 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -3836,28 +3836,28 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3890,30 +3890,30 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3958,12 +3958,12 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3978,13 +3978,13 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H52">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4026,12 +4026,12 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -4046,13 +4046,13 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H53">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4094,12 +4094,12 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4114,13 +4114,13 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H54">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4162,12 +4162,12 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -4182,13 +4182,13 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4230,12 +4230,12 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -4250,13 +4250,13 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4298,12 +4298,12 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -4318,13 +4318,13 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4366,12 +4366,12 @@
         <v>0</v>
       </c>
       <c r="V57">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -4386,13 +4386,13 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G58">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4434,12 +4434,12 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -4454,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G59">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4502,12 +4502,12 @@
         <v>0</v>
       </c>
       <c r="V59">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4522,13 +4522,13 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G60">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4570,12 +4570,12 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4590,13 +4590,13 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4638,12 +4638,12 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4658,13 +4658,13 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4706,75 +4706,2591 @@
         <v>0</v>
       </c>
       <c r="V62">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>107</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>50</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>108</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>-50</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>108</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>-30</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>108</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>-10</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>108</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>108</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>108</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>50</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>110</v>
+      </c>
+      <c r="G70">
+        <v>-20</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>110</v>
+      </c>
+      <c r="G71">
+        <v>-10</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>110</v>
+      </c>
+      <c r="G72">
+        <v>-5</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>110</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>110</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>110</v>
+      </c>
+      <c r="G75">
+        <v>20</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>112</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>-80</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>112</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>-50</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>112</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>-30</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>112</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>112</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>50</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>112</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>80</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>116</v>
+      </c>
+      <c r="G82">
+        <v>-20</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>116</v>
+      </c>
+      <c r="G83">
+        <v>-10</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>116</v>
+      </c>
+      <c r="G84">
+        <v>-5</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>116</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>116</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
         <v>116</v>
       </c>
-      <c r="G63">
+      <c r="G87">
         <v>20</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
         <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>11017</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>128</v>
+      </c>
+      <c r="J88">
+        <v>15</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>122</v>
+      </c>
+      <c r="M88">
+        <v>12</v>
+      </c>
+      <c r="N88">
+        <v>100</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>11016</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>128</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>15</v>
+      </c>
+      <c r="L89">
+        <v>113</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>300</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>99</v>
+      </c>
+      <c r="G90">
+        <v>17</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>113</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>129</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>107</v>
+      </c>
+      <c r="J92">
+        <v>999</v>
+      </c>
+      <c r="K92">
+        <v>999</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>126</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>130</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>100</v>
+      </c>
+      <c r="L93">
+        <v>122</v>
+      </c>
+      <c r="M93">
+        <v>7</v>
+      </c>
+      <c r="N93">
+        <v>100</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>11023</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>113</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>20</v>
+      </c>
+      <c r="L94">
+        <v>109</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>20</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>130</v>
+      </c>
+      <c r="G95">
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>122</v>
+      </c>
+      <c r="G96">
+        <v>14</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>99</v>
+      </c>
+      <c r="G97">
+        <v>18</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>130</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>122</v>
+      </c>
+      <c r="G99">
+        <v>13</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/04.Trait_Table.xlsx
+++ b/Plan/Table/Live_Data/04.Trait_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65878F7B-C374-4D65-8AF5-9FECB5AD1757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{712AADFF-88C3-45C6-A2D3-CC8E3188D9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34A237C4-CA13-4A7A-B842-1628815DEC65}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="7500" windowHeight="6000" xr2:uid="{ABE32F74-539C-4875-A03A-362B4B113821}"/>
   </bookViews>
   <sheets>
     <sheet name="04.Trait_Table" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>trait_type</t>
-  </si>
-  <si>
-    <t>trait_condition</t>
   </si>
   <si>
     <t>trait_vive</t>
@@ -53,55 +50,43 @@
     <t>type</t>
   </si>
   <si>
-    <t>battle_option_type_1</t>
+    <t>trait_condition_1</t>
   </si>
   <si>
-    <t>b1_value1</t>
+    <t>condion_count_1</t>
   </si>
   <si>
-    <t>b1_value2</t>
+    <t>conditon_type_1</t>
   </si>
   <si>
-    <t>battle_option_type_2</t>
+    <t>tc1_value1</t>
   </si>
   <si>
-    <t>b2_value1</t>
+    <t>tc1_value2</t>
   </si>
   <si>
-    <t>b2_value2</t>
+    <t>conditon_type_2</t>
   </si>
   <si>
-    <t>battle_option_type_3</t>
+    <t>tc2_value1</t>
   </si>
   <si>
-    <t>b3_value1</t>
+    <t>tc2_value2</t>
   </si>
   <si>
-    <t>b3_value2</t>
+    <t>conditon_type_3</t>
   </si>
   <si>
-    <t>battle_option_type_4</t>
+    <t>tc3_value1</t>
   </si>
   <si>
-    <t>b4_value1</t>
+    <t>tc3_value2</t>
   </si>
   <si>
-    <t>b4_value2</t>
+    <t>trait_condition_2</t>
   </si>
   <si>
-    <t>condition_type</t>
-  </si>
-  <si>
-    <t>condition_value</t>
-  </si>
-  <si>
-    <t>rarity</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>group</t>
+    <t>condion_count_2</t>
   </si>
 </sst>
 </file>
@@ -484,7 +469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E142D6F-247B-4294-98EA-23D4A76BB07D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B6C55A-BA7D-4B13-AB93-F8DB2C2B4198}">
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -546,19 +531,19 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -569,19 +554,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>500</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -626,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -637,25 +622,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -694,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -705,19 +690,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -773,19 +758,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -841,19 +826,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -909,22 +894,22 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -977,19 +962,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1045,19 +1030,19 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1113,19 +1098,19 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1181,19 +1166,19 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1249,25 +1234,25 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>100</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1317,19 +1302,19 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1385,19 +1370,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1453,19 +1438,19 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1510,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1521,19 +1506,19 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1578,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -1589,19 +1574,19 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1657,19 +1642,19 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1725,19 +1710,19 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1793,22 +1778,22 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1861,19 +1846,19 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1932,22 +1917,22 @@
         <v>3</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
       <c r="F22">
-        <v>101</v>
+        <v>10000</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>50</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1997,19 +1982,19 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2054,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -2065,19 +2050,19 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2122,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -2133,19 +2118,19 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2190,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -2201,19 +2186,19 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2258,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -2269,19 +2254,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2326,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -2337,19 +2322,19 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2394,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -2405,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2462,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -2473,19 +2458,19 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2530,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -2541,19 +2526,19 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2598,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -2609,19 +2594,19 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2666,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -2677,19 +2662,19 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2734,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -2745,19 +2730,19 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2802,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -2813,19 +2798,19 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2870,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -2881,19 +2866,19 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2938,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -2949,19 +2934,19 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3006,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -3017,19 +3002,19 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3074,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -3085,19 +3070,19 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3142,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -3153,19 +3138,19 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3210,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -3221,19 +3206,19 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3278,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="V41">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -3289,19 +3274,19 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3346,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -3357,19 +3342,19 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3414,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -3425,19 +3410,19 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3482,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -3493,19 +3478,19 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3550,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -3561,19 +3546,19 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3618,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -3629,43 +3614,43 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3697,64 +3682,64 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
         <v>102</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>20</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
         <v>103</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>20</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <v>3584</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
+      </c>
+      <c r="S48">
         <v>102</v>
       </c>
-      <c r="M48">
+      <c r="T48">
         <v>-20</v>
       </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
+      <c r="U48">
+        <v>4</v>
+      </c>
+      <c r="V48">
         <v>103</v>
-      </c>
-      <c r="P48">
-        <v>-20</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -3765,31 +3750,31 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3833,31 +3818,31 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3904,34 +3889,34 @@
         <v>3</v>
       </c>
       <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>3</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
       <c r="F51">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3969,19 +3954,19 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4026,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -4037,19 +4022,19 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4094,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -4105,19 +4090,19 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4162,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -4173,19 +4158,19 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4230,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -4241,19 +4226,19 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4298,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -4309,19 +4294,19 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4366,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="V57">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -4377,22 +4362,22 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4434,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -4445,22 +4430,22 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4502,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="V59">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -4513,22 +4498,22 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4570,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -4581,22 +4566,22 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4638,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -4649,22 +4634,22 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4706,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="V62">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
@@ -4717,22 +4702,22 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4774,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="V63">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -4785,22 +4770,22 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4842,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -4853,22 +4838,22 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4910,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -4921,22 +4906,22 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4978,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -4989,22 +4974,22 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -5046,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -5057,22 +5042,22 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5114,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
@@ -5125,22 +5110,22 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5182,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -5193,19 +5178,19 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5250,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="V70">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -5261,19 +5246,19 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5318,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -5329,19 +5314,19 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5386,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="V72">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -5397,19 +5382,19 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -5454,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="V73">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -5465,19 +5450,19 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5522,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="V74">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -5533,19 +5518,19 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5590,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="V75">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -5601,22 +5586,22 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5658,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="V76">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -5669,22 +5654,22 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5726,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="V77">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -5737,22 +5722,22 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5794,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="V78">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -5805,22 +5790,22 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5862,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="V79">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -5873,22 +5858,22 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5930,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="V80">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -5941,22 +5926,22 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5998,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
@@ -6009,19 +5994,19 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -6066,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
@@ -6077,19 +6062,19 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -6134,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="V83">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
@@ -6145,19 +6130,19 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -6202,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="V84">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
@@ -6213,19 +6198,19 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6270,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="V85">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -6281,19 +6266,19 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -6338,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="V86">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
@@ -6349,19 +6334,19 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -6406,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="V87">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
@@ -6417,40 +6402,40 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>99999</v>
       </c>
       <c r="G88">
-        <v>11017</v>
+        <v>14</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I88">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -6485,40 +6470,40 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>99998</v>
       </c>
       <c r="G89">
-        <v>11016</v>
+        <v>21</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I89">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K89">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -6553,19 +6538,19 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -6621,16 +6606,16 @@
         <v>2</v>
       </c>
       <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
         <v>13</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
       <c r="F91">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -6639,10 +6624,10 @@
         <v>10</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -6689,31 +6674,31 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F92">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H92">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -6757,40 +6742,40 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F93">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H93">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I93">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -6825,40 +6810,40 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>99997</v>
       </c>
       <c r="G94">
-        <v>11023</v>
+        <v>2</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K94">
+        <v>109</v>
+      </c>
+      <c r="L94">
         <v>20</v>
       </c>
-      <c r="L94">
-        <v>109</v>
-      </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -6893,22 +6878,22 @@
         <v>2</v>
       </c>
       <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
         <v>3</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
       <c r="F95">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G95">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6961,28 +6946,28 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96">
-        <v>122</v>
+        <v>10000</v>
       </c>
       <c r="G96">
+        <v>8</v>
+      </c>
+      <c r="H96">
         <v>14</v>
       </c>
-      <c r="H96">
-        <v>100</v>
-      </c>
       <c r="I96">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -7029,31 +7014,31 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>99</v>
+        <v>15000</v>
       </c>
       <c r="G97">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -7097,22 +7082,22 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98">
-        <v>130</v>
+        <v>10000</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H98">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7165,22 +7150,22 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F99">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G99">
+        <v>9</v>
+      </c>
+      <c r="H99">
         <v>13</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -7233,25 +7218,25 @@
         <v>2</v>
       </c>
       <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
         <v>4</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
       <c r="F100">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J100">
         <v>0</v>

--- a/Plan/Table/Live_Data/04.Trait_Table.xlsx
+++ b/Plan/Table/Live_Data/04.Trait_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3509B50-FFBF-4D06-9308-0939038E1A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3BC0C1-1111-47FB-AFC4-F9C880CE30DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D865DF36-1CA2-4D3C-B6BC-C8E81544897E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B2D29FEA-8F4F-482C-A78E-F2D08336FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="04.Trait_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,618 @@
   </si>
   <si>
     <t>des_id</t>
+  </si>
+  <si>
+    <t>trait_name_1</t>
+  </si>
+  <si>
+    <t>trait_des_1</t>
+  </si>
+  <si>
+    <t>trait_name_2</t>
+  </si>
+  <si>
+    <t>trait_des_2</t>
+  </si>
+  <si>
+    <t>trait_name_3</t>
+  </si>
+  <si>
+    <t>trait_des_3</t>
+  </si>
+  <si>
+    <t>trait_name_4</t>
+  </si>
+  <si>
+    <t>trait_des_4</t>
+  </si>
+  <si>
+    <t>trait_name_5</t>
+  </si>
+  <si>
+    <t>trait_des_5</t>
+  </si>
+  <si>
+    <t>trait_name_6</t>
+  </si>
+  <si>
+    <t>trait_des_6</t>
+  </si>
+  <si>
+    <t>trait_name_7</t>
+  </si>
+  <si>
+    <t>trait_des_7</t>
+  </si>
+  <si>
+    <t>trait_name_8</t>
+  </si>
+  <si>
+    <t>trait_des_8</t>
+  </si>
+  <si>
+    <t>trait_name_9</t>
+  </si>
+  <si>
+    <t>trait_des_9</t>
+  </si>
+  <si>
+    <t>trait_name_10</t>
+  </si>
+  <si>
+    <t>trait_des_10</t>
+  </si>
+  <si>
+    <t>trait_name_11</t>
+  </si>
+  <si>
+    <t>trait_des_11</t>
+  </si>
+  <si>
+    <t>trait_name_12</t>
+  </si>
+  <si>
+    <t>trait_des_12</t>
+  </si>
+  <si>
+    <t>trait_name_13</t>
+  </si>
+  <si>
+    <t>trait_des_13</t>
+  </si>
+  <si>
+    <t>trait_name_14</t>
+  </si>
+  <si>
+    <t>trait_des_14</t>
+  </si>
+  <si>
+    <t>trait_name_15</t>
+  </si>
+  <si>
+    <t>trait_des_15</t>
+  </si>
+  <si>
+    <t>trait_name_16</t>
+  </si>
+  <si>
+    <t>trait_des_16</t>
+  </si>
+  <si>
+    <t>trait_name_17</t>
+  </si>
+  <si>
+    <t>trait_des_17</t>
+  </si>
+  <si>
+    <t>trait_name_18</t>
+  </si>
+  <si>
+    <t>trait_des_18</t>
+  </si>
+  <si>
+    <t>trait_name_19</t>
+  </si>
+  <si>
+    <t>trait_des_19</t>
+  </si>
+  <si>
+    <t>trait_name_20</t>
+  </si>
+  <si>
+    <t>trait_des_20</t>
+  </si>
+  <si>
+    <t>trait_name_21</t>
+  </si>
+  <si>
+    <t>trait_des_21</t>
+  </si>
+  <si>
+    <t>trait_name_22</t>
+  </si>
+  <si>
+    <t>trait_des_22</t>
+  </si>
+  <si>
+    <t>trait_name_23</t>
+  </si>
+  <si>
+    <t>trait_des_23</t>
+  </si>
+  <si>
+    <t>trait_name_24</t>
+  </si>
+  <si>
+    <t>trait_des_24</t>
+  </si>
+  <si>
+    <t>trait_name_25</t>
+  </si>
+  <si>
+    <t>trait_des_25</t>
+  </si>
+  <si>
+    <t>trait_name_26</t>
+  </si>
+  <si>
+    <t>trait_des_26</t>
+  </si>
+  <si>
+    <t>trait_name_27</t>
+  </si>
+  <si>
+    <t>trait_des_27</t>
+  </si>
+  <si>
+    <t>trait_name_28</t>
+  </si>
+  <si>
+    <t>trait_des_28</t>
+  </si>
+  <si>
+    <t>trait_name_29</t>
+  </si>
+  <si>
+    <t>trait_des_29</t>
+  </si>
+  <si>
+    <t>trait_name_30</t>
+  </si>
+  <si>
+    <t>trait_des_30</t>
+  </si>
+  <si>
+    <t>trait_name_31</t>
+  </si>
+  <si>
+    <t>trait_des_31</t>
+  </si>
+  <si>
+    <t>trait_name_32</t>
+  </si>
+  <si>
+    <t>trait_des_32</t>
+  </si>
+  <si>
+    <t>trait_name_33</t>
+  </si>
+  <si>
+    <t>trait_des_33</t>
+  </si>
+  <si>
+    <t>trait_name_34</t>
+  </si>
+  <si>
+    <t>trait_des_34</t>
+  </si>
+  <si>
+    <t>trait_name_35</t>
+  </si>
+  <si>
+    <t>trait_des_35</t>
+  </si>
+  <si>
+    <t>trait_name_36</t>
+  </si>
+  <si>
+    <t>trait_des_36</t>
+  </si>
+  <si>
+    <t>trait_name_37</t>
+  </si>
+  <si>
+    <t>trait_des_37</t>
+  </si>
+  <si>
+    <t>trait_name_38</t>
+  </si>
+  <si>
+    <t>trait_des_38</t>
+  </si>
+  <si>
+    <t>trait_name_39</t>
+  </si>
+  <si>
+    <t>trait_des_39</t>
+  </si>
+  <si>
+    <t>trait_name_40</t>
+  </si>
+  <si>
+    <t>trait_des_40</t>
+  </si>
+  <si>
+    <t>trait_name_41</t>
+  </si>
+  <si>
+    <t>trait_des_41</t>
+  </si>
+  <si>
+    <t>trait_name_42</t>
+  </si>
+  <si>
+    <t>trait_des_42</t>
+  </si>
+  <si>
+    <t>trait_name_43</t>
+  </si>
+  <si>
+    <t>trait_des_43</t>
+  </si>
+  <si>
+    <t>trait_name_44</t>
+  </si>
+  <si>
+    <t>trait_des_44</t>
+  </si>
+  <si>
+    <t>trait_name_45</t>
+  </si>
+  <si>
+    <t>trait_des_45</t>
+  </si>
+  <si>
+    <t>trait_name_46</t>
+  </si>
+  <si>
+    <t>trait_des_46</t>
+  </si>
+  <si>
+    <t>trait_name_47</t>
+  </si>
+  <si>
+    <t>trait_des_47</t>
+  </si>
+  <si>
+    <t>trait_name_48</t>
+  </si>
+  <si>
+    <t>trait_des_48</t>
+  </si>
+  <si>
+    <t>trait_name_49</t>
+  </si>
+  <si>
+    <t>trait_des_49</t>
+  </si>
+  <si>
+    <t>trait_name_50</t>
+  </si>
+  <si>
+    <t>trait_des_50</t>
+  </si>
+  <si>
+    <t>trait_name_51</t>
+  </si>
+  <si>
+    <t>trait_des_51</t>
+  </si>
+  <si>
+    <t>trait_name_52</t>
+  </si>
+  <si>
+    <t>trait_des_52</t>
+  </si>
+  <si>
+    <t>trait_name_53</t>
+  </si>
+  <si>
+    <t>trait_des_53</t>
+  </si>
+  <si>
+    <t>trait_name_54</t>
+  </si>
+  <si>
+    <t>trait_des_54</t>
+  </si>
+  <si>
+    <t>trait_name_55</t>
+  </si>
+  <si>
+    <t>trait_des_55</t>
+  </si>
+  <si>
+    <t>trait_name_56</t>
+  </si>
+  <si>
+    <t>trait_des_56</t>
+  </si>
+  <si>
+    <t>trait_name_57</t>
+  </si>
+  <si>
+    <t>trait_des_57</t>
+  </si>
+  <si>
+    <t>trait_name_58</t>
+  </si>
+  <si>
+    <t>trait_des_58</t>
+  </si>
+  <si>
+    <t>trait_name_59</t>
+  </si>
+  <si>
+    <t>trait_des_59</t>
+  </si>
+  <si>
+    <t>trait_name_60</t>
+  </si>
+  <si>
+    <t>trait_des_60</t>
+  </si>
+  <si>
+    <t>trait_name_61</t>
+  </si>
+  <si>
+    <t>trait_des_61</t>
+  </si>
+  <si>
+    <t>trait_name_62</t>
+  </si>
+  <si>
+    <t>trait_des_62</t>
+  </si>
+  <si>
+    <t>trait_name_63</t>
+  </si>
+  <si>
+    <t>trait_des_63</t>
+  </si>
+  <si>
+    <t>trait_name_64</t>
+  </si>
+  <si>
+    <t>trait_des_64</t>
+  </si>
+  <si>
+    <t>trait_name_65</t>
+  </si>
+  <si>
+    <t>trait_des_65</t>
+  </si>
+  <si>
+    <t>trait_name_66</t>
+  </si>
+  <si>
+    <t>trait_des_66</t>
+  </si>
+  <si>
+    <t>trait_name_67</t>
+  </si>
+  <si>
+    <t>trait_des_67</t>
+  </si>
+  <si>
+    <t>trait_name_68</t>
+  </si>
+  <si>
+    <t>trait_des_68</t>
+  </si>
+  <si>
+    <t>trait_name_69</t>
+  </si>
+  <si>
+    <t>trait_des_69</t>
+  </si>
+  <si>
+    <t>trait_name_70</t>
+  </si>
+  <si>
+    <t>trait_des_70</t>
+  </si>
+  <si>
+    <t>trait_name_71</t>
+  </si>
+  <si>
+    <t>trait_des_71</t>
+  </si>
+  <si>
+    <t>trait_name_72</t>
+  </si>
+  <si>
+    <t>trait_des_72</t>
+  </si>
+  <si>
+    <t>trait_name_73</t>
+  </si>
+  <si>
+    <t>trait_des_73</t>
+  </si>
+  <si>
+    <t>trait_name_74</t>
+  </si>
+  <si>
+    <t>trait_des_74</t>
+  </si>
+  <si>
+    <t>trait_name_75</t>
+  </si>
+  <si>
+    <t>trait_des_75</t>
+  </si>
+  <si>
+    <t>trait_name_76</t>
+  </si>
+  <si>
+    <t>trait_des_76</t>
+  </si>
+  <si>
+    <t>trait_name_77</t>
+  </si>
+  <si>
+    <t>trait_des_77</t>
+  </si>
+  <si>
+    <t>trait_name_78</t>
+  </si>
+  <si>
+    <t>trait_des_78</t>
+  </si>
+  <si>
+    <t>trait_name_79</t>
+  </si>
+  <si>
+    <t>trait_des_79</t>
+  </si>
+  <si>
+    <t>trait_name_80</t>
+  </si>
+  <si>
+    <t>trait_des_80</t>
+  </si>
+  <si>
+    <t>trait_name_81</t>
+  </si>
+  <si>
+    <t>trait_des_81</t>
+  </si>
+  <si>
+    <t>trait_name_82</t>
+  </si>
+  <si>
+    <t>trait_des_82</t>
+  </si>
+  <si>
+    <t>trait_name_83</t>
+  </si>
+  <si>
+    <t>trait_des_83</t>
+  </si>
+  <si>
+    <t>trait_name_84</t>
+  </si>
+  <si>
+    <t>trait_des_84</t>
+  </si>
+  <si>
+    <t>trait_name_85</t>
+  </si>
+  <si>
+    <t>trait_des_85</t>
+  </si>
+  <si>
+    <t>trait_name_86</t>
+  </si>
+  <si>
+    <t>trait_des_86</t>
+  </si>
+  <si>
+    <t>trait_name_87</t>
+  </si>
+  <si>
+    <t>trait_des_87</t>
+  </si>
+  <si>
+    <t>trait_name_88</t>
+  </si>
+  <si>
+    <t>trait_des_88</t>
+  </si>
+  <si>
+    <t>trait_name_89</t>
+  </si>
+  <si>
+    <t>trait_des_89</t>
+  </si>
+  <si>
+    <t>trait_name_90</t>
+  </si>
+  <si>
+    <t>trait_des_90</t>
+  </si>
+  <si>
+    <t>trait_name_91</t>
+  </si>
+  <si>
+    <t>trait_des_91</t>
+  </si>
+  <si>
+    <t>trait_name_92</t>
+  </si>
+  <si>
+    <t>trait_des_92</t>
+  </si>
+  <si>
+    <t>trait_name_93</t>
+  </si>
+  <si>
+    <t>trait_des_93</t>
+  </si>
+  <si>
+    <t>trait_name_94</t>
+  </si>
+  <si>
+    <t>trait_des_94</t>
+  </si>
+  <si>
+    <t>trait_name_95</t>
+  </si>
+  <si>
+    <t>trait_des_95</t>
+  </si>
+  <si>
+    <t>trait_name_96</t>
+  </si>
+  <si>
+    <t>trait_des_96</t>
+  </si>
+  <si>
+    <t>trait_name_97</t>
+  </si>
+  <si>
+    <t>trait_des_97</t>
+  </si>
+  <si>
+    <t>trait_name_98</t>
+  </si>
+  <si>
+    <t>trait_des_98</t>
+  </si>
+  <si>
+    <t>trait_name_99</t>
+  </si>
+  <si>
+    <t>trait_des_99</t>
+  </si>
+  <si>
+    <t>trait_name_100</t>
+  </si>
+  <si>
+    <t>trait_des_100</t>
+  </si>
+  <si>
+    <t>trait_name_101</t>
+  </si>
+  <si>
+    <t>trait_des_101</t>
+  </si>
+  <si>
+    <t>trait_name_102</t>
+  </si>
+  <si>
+    <t>trait_des_102</t>
   </si>
   <si>
     <t>trait_type</t>
@@ -526,8 +1138,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510F2E58-7B05-4FA0-B370-4CB592EF1023}">
-  <dimension ref="A1:AS101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A815DEE5-BA35-4B33-8F01-1BFA76140AFC}">
+  <dimension ref="A1:AS103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AS1048576"/>
@@ -546,135 +1158,141 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="T1" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="U1" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="V1" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="W1" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="X1" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="Y1" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="Z1" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="AA1" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="AB1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="AC1" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="AD1" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="AE1" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="AF1" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="AG1" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="AH1" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="AI1" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="AJ1" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="AK1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="AL1" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="AM1" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="AN1" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="AO1" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="AP1" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="AQ1" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="AR1" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="AS1" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -807,6 +1425,12 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -938,6 +1562,12 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -1069,6 +1699,12 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -1200,6 +1836,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -1331,6 +1973,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -1462,6 +2110,12 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -1593,6 +2247,12 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -1724,6 +2384,12 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -1855,6 +2521,12 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -1986,6 +2658,12 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -2117,6 +2795,12 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -2248,6 +2932,12 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -2379,6 +3069,12 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -2510,6 +3206,12 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -2641,6 +3343,12 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -2772,6 +3480,12 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
@@ -2903,6 +3617,12 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -3034,6 +3754,12 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -3165,6 +3891,12 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
@@ -3296,6 +4028,12 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
@@ -3427,6 +4165,12 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
       <c r="D23">
         <v>2</v>
       </c>
@@ -3558,6 +4302,12 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
       <c r="D24">
         <v>2</v>
       </c>
@@ -3689,6 +4439,12 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
       <c r="D25">
         <v>2</v>
       </c>
@@ -3820,6 +4576,12 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
       <c r="D26">
         <v>2</v>
       </c>
@@ -3951,6 +4713,12 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
       <c r="D27">
         <v>2</v>
       </c>
@@ -4082,6 +4850,12 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
       <c r="D28">
         <v>2</v>
       </c>
@@ -4213,6 +4987,12 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
       <c r="D29">
         <v>2</v>
       </c>
@@ -4344,6 +5124,12 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
       <c r="D30">
         <v>2</v>
       </c>
@@ -4475,6 +5261,12 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
       <c r="D31">
         <v>2</v>
       </c>
@@ -4606,6 +5398,12 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
       <c r="D32">
         <v>2</v>
       </c>
@@ -4737,6 +5535,12 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -4868,6 +5672,12 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
       <c r="D34">
         <v>2</v>
       </c>
@@ -4999,6 +5809,12 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
       <c r="D35">
         <v>2</v>
       </c>
@@ -5130,6 +5946,12 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="D36">
         <v>2</v>
       </c>
@@ -5261,6 +6083,12 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
       <c r="D37">
         <v>2</v>
       </c>
@@ -5392,6 +6220,12 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
       <c r="D38">
         <v>2</v>
       </c>
@@ -5523,6 +6357,12 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
       <c r="D39">
         <v>2</v>
       </c>
@@ -5654,6 +6494,12 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
       <c r="D40">
         <v>2</v>
       </c>
@@ -5785,6 +6631,12 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
       <c r="D41">
         <v>2</v>
       </c>
@@ -5916,6 +6768,12 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
       <c r="D42">
         <v>2</v>
       </c>
@@ -6047,6 +6905,12 @@
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
       <c r="D43">
         <v>2</v>
       </c>
@@ -6178,6 +7042,12 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
       <c r="D44">
         <v>2</v>
       </c>
@@ -6309,6 +7179,12 @@
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
       <c r="D45">
         <v>2</v>
       </c>
@@ -6440,6 +7316,12 @@
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
       <c r="D46">
         <v>2</v>
       </c>
@@ -6571,6 +7453,12 @@
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
       <c r="D47">
         <v>1</v>
       </c>
@@ -6702,6 +7590,12 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
       <c r="D48">
         <v>2</v>
       </c>
@@ -6833,6 +7727,12 @@
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
       <c r="D49">
         <v>2</v>
       </c>
@@ -6964,6 +7864,12 @@
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
       <c r="D50">
         <v>2</v>
       </c>
@@ -7095,6 +8001,12 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
       <c r="D51">
         <v>3</v>
       </c>
@@ -7226,6 +8138,12 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
       <c r="D52">
         <v>2</v>
       </c>
@@ -7357,6 +8275,12 @@
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
       <c r="D53">
         <v>2</v>
       </c>
@@ -7488,6 +8412,12 @@
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
       <c r="D54">
         <v>2</v>
       </c>
@@ -7619,6 +8549,12 @@
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
       <c r="D55">
         <v>2</v>
       </c>
@@ -7750,6 +8686,12 @@
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
       <c r="D56">
         <v>2</v>
       </c>
@@ -7881,6 +8823,12 @@
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
       <c r="D57">
         <v>2</v>
       </c>
@@ -8012,6 +8960,12 @@
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
       <c r="D58">
         <v>2</v>
       </c>
@@ -8143,6 +9097,12 @@
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
       <c r="D59">
         <v>2</v>
       </c>
@@ -8274,6 +9234,12 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
       <c r="D60">
         <v>2</v>
       </c>
@@ -8405,6 +9371,12 @@
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
       <c r="D61">
         <v>2</v>
       </c>
@@ -8536,6 +9508,12 @@
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
       <c r="D62">
         <v>2</v>
       </c>
@@ -8667,6 +9645,12 @@
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
       <c r="D63">
         <v>2</v>
       </c>
@@ -8798,6 +9782,12 @@
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
       <c r="D64">
         <v>2</v>
       </c>
@@ -8929,6 +9919,12 @@
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
       <c r="D65">
         <v>2</v>
       </c>
@@ -9060,6 +10056,12 @@
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
       <c r="D66">
         <v>2</v>
       </c>
@@ -9191,6 +10193,12 @@
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
       <c r="D67">
         <v>2</v>
       </c>
@@ -9322,6 +10330,12 @@
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
       <c r="D68">
         <v>2</v>
       </c>
@@ -9453,6 +10467,12 @@
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
       <c r="D69">
         <v>2</v>
       </c>
@@ -9584,6 +10604,12 @@
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
       <c r="D70">
         <v>2</v>
       </c>
@@ -9715,6 +10741,12 @@
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
       <c r="D71">
         <v>2</v>
       </c>
@@ -9846,6 +10878,12 @@
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
       <c r="D72">
         <v>2</v>
       </c>
@@ -9977,6 +11015,12 @@
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
       <c r="D73">
         <v>2</v>
       </c>
@@ -10108,6 +11152,12 @@
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
       <c r="D74">
         <v>2</v>
       </c>
@@ -10239,6 +11289,12 @@
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
       <c r="D75">
         <v>2</v>
       </c>
@@ -10370,6 +11426,12 @@
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
       <c r="D76">
         <v>2</v>
       </c>
@@ -10501,6 +11563,12 @@
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
       <c r="D77">
         <v>2</v>
       </c>
@@ -10632,6 +11700,12 @@
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
       <c r="D78">
         <v>2</v>
       </c>
@@ -10763,6 +11837,12 @@
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
       <c r="D79">
         <v>2</v>
       </c>
@@ -10894,6 +11974,12 @@
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
       <c r="D80">
         <v>2</v>
       </c>
@@ -11025,6 +12111,12 @@
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
       <c r="D81">
         <v>2</v>
       </c>
@@ -11156,6 +12248,12 @@
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
       <c r="D82">
         <v>2</v>
       </c>
@@ -11287,6 +12385,12 @@
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
       <c r="D83">
         <v>2</v>
       </c>
@@ -11418,6 +12522,12 @@
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
       <c r="D84">
         <v>2</v>
       </c>
@@ -11549,6 +12659,12 @@
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
       <c r="D85">
         <v>2</v>
       </c>
@@ -11680,6 +12796,12 @@
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
       <c r="D86">
         <v>2</v>
       </c>
@@ -11811,6 +12933,12 @@
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
       <c r="D87">
         <v>2</v>
       </c>
@@ -11942,6 +13070,12 @@
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
       <c r="D88">
         <v>2</v>
       </c>
@@ -12073,6 +13207,12 @@
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
       <c r="D89">
         <v>2</v>
       </c>
@@ -12204,6 +13344,12 @@
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
       <c r="D90">
         <v>1</v>
       </c>
@@ -12335,6 +13481,12 @@
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
       <c r="D91">
         <v>2</v>
       </c>
@@ -12466,6 +13618,12 @@
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>184</v>
+      </c>
       <c r="D92">
         <v>2</v>
       </c>
@@ -12597,6 +13755,12 @@
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
       <c r="D93">
         <v>2</v>
       </c>
@@ -12728,6 +13892,12 @@
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>188</v>
+      </c>
       <c r="D94">
         <v>2</v>
       </c>
@@ -12859,6 +14029,12 @@
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
       <c r="D95">
         <v>2</v>
       </c>
@@ -12990,6 +14166,12 @@
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>192</v>
+      </c>
       <c r="D96">
         <v>2</v>
       </c>
@@ -13121,6 +14303,12 @@
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>194</v>
+      </c>
       <c r="D97">
         <v>1</v>
       </c>
@@ -13252,6 +14440,12 @@
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>196</v>
+      </c>
       <c r="D98">
         <v>2</v>
       </c>
@@ -13383,6 +14577,12 @@
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
       <c r="D99">
         <v>1</v>
       </c>
@@ -13514,6 +14714,12 @@
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
       <c r="D100">
         <v>2</v>
       </c>
@@ -13645,6 +14851,12 @@
       <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>202</v>
+      </c>
       <c r="D101">
         <v>2</v>
       </c>
@@ -13736,6 +14948,214 @@
         <v>0</v>
       </c>
       <c r="AS101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>500</v>
+      </c>
+      <c r="I102">
+        <v>8</v>
+      </c>
+      <c r="J102">
+        <v>15</v>
+      </c>
+      <c r="K102">
+        <v>100</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>0</v>
+      </c>
+      <c r="AS102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>1000</v>
+      </c>
+      <c r="I103">
+        <v>8</v>
+      </c>
+      <c r="J103">
+        <v>15</v>
+      </c>
+      <c r="K103">
+        <v>100</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+      <c r="AQ103">
+        <v>0</v>
+      </c>
+      <c r="AR103">
+        <v>0</v>
+      </c>
+      <c r="AS103">
         <v>0</v>
       </c>
     </row>
